--- a/docs/Manual/source/EN/tab/parameters.xlsx
+++ b/docs/Manual/source/EN/tab/parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="TGZ-D-48-13_26" sheetId="1" state="visible" r:id="rId3"/>
@@ -26,6 +26,7 @@
     <sheet name="TGS-560-25_50" sheetId="16" state="visible" r:id="rId18"/>
     <sheet name="TGS-560-50_100" sheetId="17" state="visible" r:id="rId19"/>
     <sheet name="TGMmini" sheetId="18" state="visible" r:id="rId20"/>
+    <sheet name="TGMcontroller" sheetId="19" state="visible" r:id="rId21"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="188">
   <si>
     <t xml:space="preserve">NAPÁJENÍ</t>
   </si>
@@ -595,6 +596,12 @@
   </si>
   <si>
     <t xml:space="preserve">2 x 10pin WEIDMÜLLER B2CF 3.50/10/180 SN OR BX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Červená/zelená dioda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 22pin WEIDMÜLLER  B2CF 3.50/22/180</t>
   </si>
 </sst>
 </file>
@@ -819,7 +826,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1277,7 +1284,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2654,7 +2661,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2874,10 +2881,193 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2888,182 +3078,159 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0"/>
-      <c r="B5" s="0"/>
       <c r="C5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>170</v>
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>172</v>
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>174</v>
+      <c r="A10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>176</v>
-      </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>178</v>
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
+      <c r="A13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="C13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>1</v>
-      </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15" s="4"/>
+      <c r="A15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
+      <c r="A16" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>1</v>
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>182</v>
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>183</v>
+      <c r="A19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
-      <c r="B23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0"/>
-      <c r="B24" s="0"/>
+      <c r="A20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3084,7 +3251,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
